--- a/노현우팀 프로젝트 파일/개발일정표(노현우팀).xlsx
+++ b/노현우팀 프로젝트 파일/개발일정표(노현우팀).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\노현우팀 프로젝트 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_koreaIT\노현우팀 프로젝트 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
   <si>
     <t>작업시작예정일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,6 +522,14 @@
   </si>
   <si>
     <t>검색창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤정재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노현우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,12 +629,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -637,14 +642,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,10 +657,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,918 +951,1024 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="11" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="8" width="17.375" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="6" max="8" width="17.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="11" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="11" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="11" customWidth="1"/>
     <col min="13" max="13" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12">
+        <v>45674</v>
+      </c>
+      <c r="J2" s="12">
+        <v>45678</v>
+      </c>
+      <c r="K2" s="12">
+        <v>45674</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="F3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>45674</v>
+      </c>
+      <c r="J3" s="12">
+        <v>45678</v>
+      </c>
+      <c r="K3" s="12">
+        <v>45674</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="F4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>45674</v>
+      </c>
+      <c r="J4" s="12">
+        <v>45678</v>
+      </c>
+      <c r="K4" s="12">
+        <v>45674</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="F5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>45674</v>
+      </c>
+      <c r="J5" s="12">
+        <v>45678</v>
+      </c>
+      <c r="K5" s="12">
+        <v>45674</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="F6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>45674</v>
+      </c>
+      <c r="J6" s="12">
+        <v>45678</v>
+      </c>
+      <c r="K6" s="12">
+        <v>45674</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="F7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>45674</v>
+      </c>
+      <c r="J7" s="12">
+        <v>45678</v>
+      </c>
+      <c r="K7" s="12">
+        <v>45674</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="F8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>45674</v>
+      </c>
+      <c r="J8" s="12">
+        <v>45678</v>
+      </c>
+      <c r="K8" s="12">
+        <v>45674</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="F9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>45674</v>
+      </c>
+      <c r="J9" s="12">
+        <v>45678</v>
+      </c>
+      <c r="K9" s="12">
+        <v>45674</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="F10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>45674</v>
+      </c>
+      <c r="J10" s="12">
+        <v>45678</v>
+      </c>
+      <c r="K10" s="12">
+        <v>45674</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="2" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="4" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="2" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="5" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="5" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B14:B15"/>
@@ -1866,10 +1983,12 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/노현우팀 프로젝트 파일/개발일정표(노현우팀).xlsx
+++ b/노현우팀 프로젝트 파일/개발일정표(노현우팀).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_koreaIT\노현우팀 프로젝트 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingMall\노현우팀 프로젝트 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -265,18 +265,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/loginForm.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/logout.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각 카테고리 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,6 +523,13 @@
   <si>
     <t>노현우</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/logout.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/addMember.do</t>
   </si>
 </sst>
 </file>
@@ -554,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +569,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,7 +653,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -657,16 +668,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,21 +961,21 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="8" width="17.375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="11" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="11" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="11" customWidth="1"/>
+    <col min="6" max="8" width="17.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="7" customWidth="1"/>
     <col min="13" max="13" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1013,23 +1021,23 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G2" s="4">
         <v>3</v>
@@ -1037,30 +1045,30 @@
       <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="8">
         <v>45674</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="8">
         <v>45678</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="8">
         <v>45674</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="10" t="s">
-        <v>111</v>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3" s="4">
         <v>3</v>
@@ -1068,34 +1076,34 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="8">
         <v>45674</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="8">
         <v>45678</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="8">
         <v>45674</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="4">
         <v>3</v>
@@ -1103,32 +1111,32 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="8">
         <v>45674</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <v>45678</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="8">
         <v>45674</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
@@ -1136,30 +1144,30 @@
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="8">
         <v>45674</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="8">
         <v>45678</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="8">
         <v>45674</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
@@ -1167,32 +1175,32 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="8">
         <v>45674</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <v>45678</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="8">
         <v>45674</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>62</v>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
@@ -1200,32 +1208,32 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <v>45674</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <v>45678</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="8">
         <v>45674</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>64</v>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -1233,32 +1241,32 @@
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
         <v>45674</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="8">
         <v>45678</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="8">
         <v>45674</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>106</v>
+      <c r="D9" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G9" s="4">
         <v>3</v>
@@ -1266,32 +1274,32 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="8">
         <v>45674</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="8">
         <v>45678</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="8">
         <v>45674</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>107</v>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -1299,20 +1307,20 @@
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8">
         <v>45674</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="8">
         <v>45678</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="8">
         <v>45674</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1335,8 +1343,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1358,8 +1366,8 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1377,20 +1385,20 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>95</v>
+      <c r="A14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1402,14 +1410,14 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1421,18 +1429,18 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>96</v>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1444,14 +1452,14 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1463,16 +1471,16 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1484,8 +1492,8 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1507,16 +1515,16 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1528,14 +1536,14 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>41</v>
@@ -1553,10 +1561,10 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>42</v>
@@ -1574,10 +1582,10 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1587,7 +1595,7 @@
         <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1599,14 +1607,14 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1618,8 +1626,8 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1629,7 +1637,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1641,8 +1649,8 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1660,7 +1668,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
@@ -1681,14 +1689,14 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>103</v>
+      <c r="A28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>52</v>
@@ -1706,10 +1714,10 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="1" t="s">
@@ -1725,12 +1733,12 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9" t="s">
-        <v>104</v>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>53</v>
@@ -1748,10 +1756,10 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="1" t="s">
@@ -1767,16 +1775,16 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1788,18 +1796,18 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1811,18 +1819,18 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>73</v>
+      <c r="A34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1834,14 +1842,14 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1853,20 +1861,20 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>121</v>
+      <c r="A36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1878,14 +1886,14 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="10" t="s">
-        <v>111</v>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1897,18 +1905,18 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>118</v>
+      <c r="A38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1920,14 +1928,14 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="10" t="s">
-        <v>111</v>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1940,19 +1948,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1965,6 +1973,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B10"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B36:B37"/>
@@ -1981,14 +1997,6 @@
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/노현우팀 프로젝트 파일/개발일정표(노현우팀).xlsx
+++ b/노현우팀 프로젝트 파일/개발일정표(노현우팀).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_koreaIT\노현우팀 프로젝트 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingMall_web\노현우팀 프로젝트 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>작업시작예정일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/myInfo.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/myCartList.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,10 +489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/categoryList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/addMyCart.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,6 +523,16 @@
   <si>
     <t>노현우</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addMyCart.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/goodsList.do</t>
+  </si>
+  <si>
+    <t>/myPageMain.do</t>
   </si>
 </sst>
 </file>
@@ -648,6 +650,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,15 +669,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -951,23 +953,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="8" width="17.375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="11" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="11" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="11" customWidth="1"/>
+    <col min="6" max="8" width="17.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="7" customWidth="1"/>
     <col min="13" max="13" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1013,23 +1015,23 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G2" s="4">
         <v>3</v>
@@ -1037,30 +1039,30 @@
       <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="8">
         <v>45674</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="8">
         <v>45678</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="8">
         <v>45674</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="10" t="s">
-        <v>111</v>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3" s="4">
         <v>3</v>
@@ -1068,34 +1070,34 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="8">
         <v>45674</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="8">
         <v>45678</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="8">
         <v>45674</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="4">
         <v>3</v>
@@ -1103,32 +1105,32 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="8">
         <v>45674</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <v>45678</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="8">
         <v>45674</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
@@ -1136,30 +1138,30 @@
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="8">
         <v>45674</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="8">
         <v>45678</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="8">
         <v>45674</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
@@ -1167,32 +1169,32 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="8">
         <v>45674</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <v>45678</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="8">
         <v>45674</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
@@ -1200,32 +1202,32 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <v>45674</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <v>45678</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="8">
         <v>45674</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -1233,32 +1235,32 @@
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
         <v>45674</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="8">
         <v>45678</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="8">
         <v>45674</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>106</v>
+      <c r="D9" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G9" s="4">
         <v>3</v>
@@ -1266,32 +1268,32 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="8">
         <v>45674</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="8">
         <v>45678</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="8">
         <v>45674</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -1299,20 +1301,20 @@
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8">
         <v>45674</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="8">
         <v>45678</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="8">
         <v>45674</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1335,8 +1337,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1358,8 +1360,8 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1377,14 +1379,14 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>95</v>
+      <c r="A14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
@@ -1402,10 +1404,10 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
@@ -1421,12 +1423,12 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>96</v>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>37</v>
@@ -1444,10 +1446,10 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
@@ -1463,12 +1465,12 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
@@ -1484,8 +1486,8 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1507,16 +1509,16 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1528,14 +1530,14 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>41</v>
@@ -1553,10 +1555,10 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>42</v>
@@ -1574,10 +1576,10 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1587,7 +1589,7 @@
         <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1599,14 +1601,14 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1618,8 +1620,8 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1629,7 +1631,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1641,8 +1643,8 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1660,7 +1662,7 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
@@ -1681,14 +1683,14 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>103</v>
+      <c r="A28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>52</v>
@@ -1706,10 +1708,10 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="1" t="s">
@@ -1725,12 +1727,12 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9" t="s">
-        <v>104</v>
+      <c r="A30" s="9"/>
+      <c r="B30" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>53</v>
@@ -1748,10 +1750,10 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="1" t="s">
@@ -1767,16 +1769,16 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1788,18 +1790,18 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1811,18 +1813,18 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1834,14 +1836,14 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1853,20 +1855,20 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>121</v>
+      <c r="A36" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1878,14 +1880,14 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="10" t="s">
-        <v>111</v>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1897,18 +1899,18 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>118</v>
+      <c r="C38" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1920,14 +1922,14 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="10" t="s">
-        <v>111</v>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1940,19 +1942,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>

--- a/노현우팀 프로젝트 파일/개발일정표(노현우팀).xlsx
+++ b/노현우팀 프로젝트 파일/개발일정표(노현우팀).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
   <si>
     <t>작업시작예정일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,30 @@
   </si>
   <si>
     <t>/member/addMember.do</t>
+  </si>
+  <si>
+    <t>노현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박규태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤정재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -634,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,6 +675,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,6 +703,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,23 +992,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="8" width="17.375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="7" customWidth="1"/>
+    <col min="6" max="8" width="17.375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="8" customWidth="1"/>
     <col min="13" max="13" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1021,10 +1054,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1045,22 +1078,22 @@
       <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="9">
         <v>45674</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="9">
         <v>45678</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="9">
         <v>45674</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D3" s="4"/>
@@ -1076,29 +1109,29 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <v>45674</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="9">
         <v>45678</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="9">
         <v>45674</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
@@ -1111,31 +1144,31 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <v>45674</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="9">
         <v>45678</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <v>45674</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="4">
@@ -1144,29 +1177,29 @@
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="9">
         <v>45674</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="9">
         <v>45678</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <v>45674</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="14" t="s">
         <v>123</v>
       </c>
       <c r="G6" s="4">
@@ -1175,25 +1208,25 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>45674</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>45678</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>45674</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1208,25 +1241,25 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>45674</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>45678</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="9">
         <v>45674</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1241,25 +1274,25 @@
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>45674</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="9">
         <v>45678</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="9">
         <v>45674</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1274,121 +1307,157 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <v>45674</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="9">
         <v>45678</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="9">
         <v>45674</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="G10" s="14">
+        <v>3</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
         <v>45674</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="9">
         <v>45678</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <v>45674</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>45674</v>
+      </c>
+      <c r="J11" s="9">
+        <v>45678</v>
+      </c>
+      <c r="K11" s="9">
+        <v>45674</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>45674</v>
+      </c>
+      <c r="J12" s="9">
+        <v>45678</v>
+      </c>
+      <c r="K12" s="9">
+        <v>45674</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>45674</v>
+      </c>
+      <c r="J13" s="9">
+        <v>45678</v>
+      </c>
+      <c r="K13" s="9">
+        <v>45674</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1400,18 +1469,28 @@
       <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>45678</v>
+      </c>
+      <c r="J14" s="9">
+        <v>45681</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
         <v>83</v>
       </c>
@@ -1419,18 +1498,28 @@
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="F15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>45678</v>
+      </c>
+      <c r="J15" s="9">
+        <v>45681</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1442,18 +1531,28 @@
       <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="F16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>45678</v>
+      </c>
+      <c r="J16" s="9">
+        <v>45681</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
@@ -1461,17 +1560,27 @@
       <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="F17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9">
+        <v>45678</v>
+      </c>
+      <c r="J17" s="9">
+        <v>45681</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>95</v>
       </c>
@@ -1482,18 +1591,28 @@
       <c r="E18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="F18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>45678</v>
+      </c>
+      <c r="J18" s="9">
+        <v>45681</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1505,18 +1624,28 @@
       <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="F19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9">
+        <v>45678</v>
+      </c>
+      <c r="J19" s="9">
+        <v>45681</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4" t="s">
         <v>77</v>
       </c>
@@ -1526,20 +1655,30 @@
       <c r="E20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="F20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9">
+        <v>45678</v>
+      </c>
+      <c r="J20" s="9">
+        <v>45681</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1551,18 +1690,28 @@
       <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="F21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
+        <v>45691</v>
+      </c>
+      <c r="J21" s="9">
+        <v>45693</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4" t="s">
         <v>79</v>
       </c>
@@ -1572,20 +1721,30 @@
       <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="F22" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
+        <v>45691</v>
+      </c>
+      <c r="J22" s="9">
+        <v>45693</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1597,18 +1756,28 @@
       <c r="E23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <v>45691</v>
+      </c>
+      <c r="J23" s="9">
+        <v>45693</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
@@ -1616,18 +1785,28 @@
       <c r="E24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="F24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <v>45691</v>
+      </c>
+      <c r="J24" s="9">
+        <v>45693</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1639,18 +1818,28 @@
       <c r="E25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="F25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>45691</v>
+      </c>
+      <c r="J25" s="9">
+        <v>45693</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1658,17 +1847,27 @@
       <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="F26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9">
+        <v>45691</v>
+      </c>
+      <c r="J26" s="9">
+        <v>45693</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
@@ -1679,20 +1878,30 @@
       <c r="E27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="F27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9">
+        <v>45691</v>
+      </c>
+      <c r="J27" s="9">
+        <v>45693</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1704,18 +1913,28 @@
       <c r="E28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="F28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9">
+        <v>45691</v>
+      </c>
+      <c r="J28" s="9">
+        <v>45693</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="5" t="s">
         <v>97</v>
       </c>
@@ -1723,18 +1942,28 @@
       <c r="E29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="F29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>45694</v>
+      </c>
+      <c r="J29" s="9">
+        <v>45698</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1746,18 +1975,28 @@
       <c r="E30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="F30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>45694</v>
+      </c>
+      <c r="J30" s="9">
+        <v>45698</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="5" t="s">
         <v>99</v>
       </c>
@@ -1765,17 +2004,27 @@
       <c r="E31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="F31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>45694</v>
+      </c>
+      <c r="J31" s="9">
+        <v>45698</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
         <v>103</v>
       </c>
@@ -1786,17 +2035,27 @@
       <c r="E32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9">
+        <v>45694</v>
+      </c>
+      <c r="J32" s="9">
+        <v>45698</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
@@ -1809,20 +2068,30 @@
       <c r="E33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="F33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="4">
+        <v>3</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
+        <v>45694</v>
+      </c>
+      <c r="J33" s="9">
+        <v>45698</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1832,18 +2101,28 @@
       <c r="E34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="F34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="4">
+        <v>3</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
+        <v>45694</v>
+      </c>
+      <c r="J34" s="9">
+        <v>45698</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="4" t="s">
         <v>56</v>
       </c>
@@ -1851,20 +2130,30 @@
       <c r="E35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="F35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9">
+        <v>45694</v>
+      </c>
+      <c r="J35" s="9">
+        <v>45698</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -1876,72 +2165,112 @@
       <c r="E36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="F36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="4">
+        <v>3</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9">
+        <v>45699</v>
+      </c>
+      <c r="J36" s="9">
+        <v>45701</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="6" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="F37" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="4">
+        <v>3</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9">
+        <v>45699</v>
+      </c>
+      <c r="J37" s="9">
+        <v>45701</v>
+      </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="F38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="9">
+        <v>45699</v>
+      </c>
+      <c r="J38" s="9">
+        <v>45701</v>
+      </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="6" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="F39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="4">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="9">
+        <v>45699</v>
+      </c>
+      <c r="J39" s="9">
+        <v>45701</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="1"/>
@@ -1962,11 +2291,21 @@
       <c r="E40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="F40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="4">
+        <v>3</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="9">
+        <v>45699</v>
+      </c>
+      <c r="J40" s="9">
+        <v>45701</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="1"/>
